--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H2">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9735047618377</v>
+        <v>34.52052333333333</v>
       </c>
       <c r="N2">
-        <v>23.9735047618377</v>
+        <v>103.56157</v>
       </c>
       <c r="O2">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="P2">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="Q2">
-        <v>213.5976900010801</v>
+        <v>1177.557947293513</v>
       </c>
       <c r="R2">
-        <v>213.5976900010801</v>
+        <v>10598.02152564162</v>
       </c>
       <c r="S2">
-        <v>0.1181286463112979</v>
+        <v>0.3249592855929326</v>
       </c>
       <c r="T2">
-        <v>0.1181286463112979</v>
+        <v>0.3249592855929326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H3">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.30764142092037</v>
+        <v>5.347618333333333</v>
       </c>
       <c r="N3">
-        <v>5.30764142092037</v>
+        <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234806</v>
       </c>
       <c r="P3">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234805</v>
       </c>
       <c r="Q3">
-        <v>47.28970411816154</v>
+        <v>182.4170047106033</v>
       </c>
       <c r="R3">
-        <v>47.28970411816154</v>
+        <v>1641.75304239543</v>
       </c>
       <c r="S3">
-        <v>0.02615322633831848</v>
+        <v>0.05033985772590168</v>
       </c>
       <c r="T3">
-        <v>0.02615322633831848</v>
+        <v>0.05033985772590167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H4">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.87847594642468</v>
+        <v>5.055101333333334</v>
       </c>
       <c r="N4">
-        <v>4.87847594642468</v>
+        <v>15.165304</v>
       </c>
       <c r="O4">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="P4">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="Q4">
-        <v>43.46595140068571</v>
+        <v>172.4387168746293</v>
       </c>
       <c r="R4">
-        <v>43.46595140068571</v>
+        <v>1551.948451871664</v>
       </c>
       <c r="S4">
-        <v>0.02403852775547198</v>
+        <v>0.04758624607216407</v>
       </c>
       <c r="T4">
-        <v>0.02403852775547198</v>
+        <v>0.04758624607216407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9735047618377</v>
+        <v>34.52052333333333</v>
       </c>
       <c r="N5">
-        <v>23.9735047618377</v>
+        <v>103.56157</v>
       </c>
       <c r="O5">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="P5">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="Q5">
-        <v>832.3959837825225</v>
+        <v>1204.148784225629</v>
       </c>
       <c r="R5">
-        <v>832.3959837825225</v>
+        <v>10837.33905803066</v>
       </c>
       <c r="S5">
-        <v>0.4603505344963854</v>
+        <v>0.3322973018601055</v>
       </c>
       <c r="T5">
-        <v>0.4603505344963854</v>
+        <v>0.3322973018601055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.30764142092037</v>
+        <v>5.347618333333333</v>
       </c>
       <c r="N6">
-        <v>5.30764142092037</v>
+        <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234806</v>
       </c>
       <c r="P6">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234805</v>
       </c>
       <c r="Q6">
-        <v>184.2892579129598</v>
+        <v>186.5362252016655</v>
       </c>
       <c r="R6">
-        <v>184.2892579129598</v>
+        <v>1678.82602681499</v>
       </c>
       <c r="S6">
-        <v>0.1019198314685028</v>
+        <v>0.05147659919246979</v>
       </c>
       <c r="T6">
-        <v>0.1019198314685028</v>
+        <v>0.05147659919246977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.87847594642468</v>
+        <v>5.055101333333334</v>
       </c>
       <c r="N7">
-        <v>4.87847594642468</v>
+        <v>15.165304</v>
       </c>
       <c r="O7">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="P7">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="Q7">
-        <v>169.3879899966808</v>
+        <v>176.3326142507502</v>
       </c>
       <c r="R7">
-        <v>169.3879899966808</v>
+        <v>1586.993528256752</v>
       </c>
       <c r="S7">
-        <v>0.09367879380904535</v>
+        <v>0.04866080729645433</v>
       </c>
       <c r="T7">
-        <v>0.09367879380904535</v>
+        <v>0.04866080729645433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H8">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9735047618377</v>
+        <v>34.52052333333333</v>
       </c>
       <c r="N8">
-        <v>23.9735047618377</v>
+        <v>103.56157</v>
       </c>
       <c r="O8">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="P8">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="Q8">
-        <v>223.0009904818408</v>
+        <v>402.8726766021144</v>
       </c>
       <c r="R8">
-        <v>223.0009904818408</v>
+        <v>3625.854089419029</v>
       </c>
       <c r="S8">
-        <v>0.123329073135413</v>
+        <v>0.1111768787892218</v>
       </c>
       <c r="T8">
-        <v>0.123329073135413</v>
+        <v>0.1111768787892217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H9">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.30764142092037</v>
+        <v>5.347618333333333</v>
       </c>
       <c r="N9">
-        <v>5.30764142092037</v>
+        <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234806</v>
       </c>
       <c r="P9">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234805</v>
       </c>
       <c r="Q9">
-        <v>49.37155854957926</v>
+        <v>62.40952057978277</v>
       </c>
       <c r="R9">
-        <v>49.37155854957926</v>
+        <v>561.6856852180449</v>
       </c>
       <c r="S9">
-        <v>0.02730458076447967</v>
+        <v>0.0172225522051091</v>
       </c>
       <c r="T9">
-        <v>0.02730458076447967</v>
+        <v>0.01722255220510909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H10">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.87847594642468</v>
+        <v>5.055101333333334</v>
       </c>
       <c r="N10">
-        <v>4.87847594642468</v>
+        <v>15.165304</v>
       </c>
       <c r="O10">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="P10">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="Q10">
-        <v>45.37947116628204</v>
+        <v>58.99569322833511</v>
       </c>
       <c r="R10">
-        <v>45.37947116628204</v>
+        <v>530.961239055016</v>
       </c>
       <c r="S10">
-        <v>0.02509678592108541</v>
+        <v>0.0162804712656413</v>
       </c>
       <c r="T10">
-        <v>0.02509678592108541</v>
+        <v>0.0162804712656413</v>
       </c>
     </row>
   </sheetData>
